--- a/Programas e insumos/Optimización parámetros/BTC/Insumos.xlsx
+++ b/Programas e insumos/Optimización parámetros/BTC/Insumos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IDSG\Wissen\GitHub\Swell_2_Optimizacion_estrategias\Programas e insumos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IDSG\Wissen\GitHub\Swell_2_Optimizacion_estrategias\Programas e insumos\Optimización parámetros\BTC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42DEBC81-B4E4-457E-B926-B1CD81D50436}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{69450078-CC60-4BDE-BA8F-8C82AD309710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12252" activeTab="2" xr2:uid="{59E37A4A-BA9D-486E-8155-2E7BBEED7B64}"/>
   </bookViews>

--- a/Programas e insumos/Optimización parámetros/BTC/Insumos.xlsx
+++ b/Programas e insumos/Optimización parámetros/BTC/Insumos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IDSG\Wissen\GitHub\Swell_2_Optimizacion_estrategias\Programas e insumos\Optimización parámetros\BTC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{69450078-CC60-4BDE-BA8F-8C82AD309710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CD1CB27-802D-4A6C-93A3-E22F08051C32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12252" activeTab="2" xr2:uid="{59E37A4A-BA9D-486E-8155-2E7BBEED7B64}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12252" xr2:uid="{59E37A4A-BA9D-486E-8155-2E7BBEED7B64}"/>
   </bookViews>
   <sheets>
     <sheet name="Insumos" sheetId="2" r:id="rId1"/>
@@ -535,7 +535,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4873B9A-A335-448F-A0C1-E26E32A6A751}">
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -600,7 +600,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="4">
-        <v>5.0000000000000001E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -771,7 +771,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93B9CB89-4168-4B3F-A2DD-1D747128A205}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -826,13 +826,13 @@
         <v>25</v>
       </c>
       <c r="B4" s="7">
+        <v>0</v>
+      </c>
+      <c r="C4" s="7">
         <v>0.25</v>
       </c>
-      <c r="C4" s="7">
+      <c r="D4" s="7">
         <v>0.5</v>
-      </c>
-      <c r="D4" s="7">
-        <v>0.75</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -840,13 +840,13 @@
         <v>26</v>
       </c>
       <c r="B5" s="7">
+        <v>0</v>
+      </c>
+      <c r="C5" s="7">
         <v>0.25</v>
       </c>
-      <c r="C5" s="7">
+      <c r="D5" s="7">
         <v>0.5</v>
-      </c>
-      <c r="D5" s="7">
-        <v>0.75</v>
       </c>
     </row>
   </sheetData>

--- a/Programas e insumos/Optimización parámetros/BTC/Insumos.xlsx
+++ b/Programas e insumos/Optimización parámetros/BTC/Insumos.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IDSG\Wissen\GitHub\Swell_2_Optimizacion_estrategias\Programas e insumos\Optimización parámetros\BTC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\c809557\Documents\GitHub\Swell_2_Optimizacion_estrategias\Programas e insumos\Optimización parámetros\BTC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CD1CB27-802D-4A6C-93A3-E22F08051C32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12252" xr2:uid="{59E37A4A-BA9D-486E-8155-2E7BBEED7B64}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12252"/>
   </bookViews>
   <sheets>
     <sheet name="Insumos" sheetId="2" r:id="rId1"/>
@@ -131,7 +130,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
@@ -220,8 +219,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{A19E3F9B-3F66-4B11-8923-20882C6EB872}"/>
-    <cellStyle name="Percent 2" xfId="2" xr:uid="{2E3C78C4-029E-4DA3-8884-A264B3B1A9D5}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Percent 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -532,14 +531,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4873B9A-A335-448F-A0C1-E26E32A6A751}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="39.88671875" style="1" customWidth="1"/>
     <col min="2" max="16384" width="8.88671875" style="1"/>
@@ -685,12 +684,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E832472B-9A58-4630-968A-95C5F2276B14}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
@@ -768,12 +767,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93B9CB89-4168-4B3F-A2DD-1D747128A205}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
